--- a/StructureDefinition-RS-Observation-collision-type.xlsx
+++ b/StructureDefinition-RS-Observation-collision-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T06:06:11+00:00</t>
+    <t>2025-10-15T08:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -692,7 +692,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(urn://example.com/ph-core/fhir/StructureDefinition/ph-core-patient)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/RS-Patient)
 </t>
   </si>
   <si>
@@ -746,7 +746,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(urn://example.com/ph-core/fhir/StructureDefinition/ph-core-encounter)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/RS-Encounter)
 </t>
   </si>
   <si>
